--- a/src/demos/zdemo_excel15#5.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15#5.w3mi.data.xlsx
@@ -328,7 +328,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="C1:E8"/>
+  <dimension ref="C4:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -336,10 +336,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="1" spans="1:5">
       <c r=""/>
     </row>
-    <row r="4" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="4" spans="1:5">
       <c r="C4">
         <v>100</v>
       </c>
@@ -347,7 +347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="5" spans="1:5">
       <c r="C5">
         <v>1000</v>
       </c>
@@ -355,7 +355,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="6" spans="1:5">
       <c r="C6">
         <v>150</v>
       </c>
@@ -363,7 +363,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="7" spans="1:5">
       <c r="C7">
         <v>10</v>
       </c>
@@ -371,7 +371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="8" spans="1:5">
       <c r="C8">
         <v>500</v>
       </c>
